--- a/docs/csdl.xlsx
+++ b/docs/csdl.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\25\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10AD2F29-8B56-4B90-B7B9-37744C44C39D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2488629C-FD28-4279-A34C-722F85D0CCA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6975" yWindow="2715" windowWidth="18345" windowHeight="12555" xr2:uid="{D1F19E86-CB7D-46BC-BF7C-28CB26985B36}"/>
+    <workbookView xWindow="5835" yWindow="495" windowWidth="18345" windowHeight="12555" xr2:uid="{D1F19E86-CB7D-46BC-BF7C-28CB26985B36}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="45">
   <si>
     <t xml:space="preserve"> specialist</t>
   </si>
@@ -65,12 +65,6 @@
     <t>address</t>
   </si>
   <si>
-    <t>id_doctor</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
     <t>service</t>
   </si>
   <si>
@@ -98,9 +92,6 @@
     <t>password</t>
   </si>
   <si>
-    <t>value</t>
-  </si>
-  <si>
     <t>user_id</t>
   </si>
   <si>
@@ -146,9 +137,6 @@
     <t>lịch hẹn</t>
   </si>
   <si>
-    <t>0,1,2</t>
-  </si>
-  <si>
     <t>admin</t>
   </si>
   <si>
@@ -159,6 +147,27 @@
   </si>
   <si>
     <t>tên chuyên khoa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qualifications </t>
+  </si>
+  <si>
+    <t>doctor_id</t>
+  </si>
+  <si>
+    <t>khách hàng</t>
+  </si>
+  <si>
+    <t>shift</t>
+  </si>
+  <si>
+    <t>0,1,2,3</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> specialist_id</t>
   </si>
 </sst>
 </file>
@@ -278,24 +287,6 @@
   </cellStyleXfs>
   <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -307,16 +298,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -636,305 +645,376 @@
   <dimension ref="B3:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11:M11"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="G3" s="3" t="s">
+      <c r="C3" s="9"/>
+      <c r="G3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="9"/>
+      <c r="L3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="4"/>
-      <c r="L3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M3" s="4"/>
+      <c r="M3" s="9"/>
       <c r="P3" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q3" s="8"/>
+        <v>31</v>
+      </c>
+      <c r="Q3" s="2"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="G4" s="1" t="s">
+      <c r="C4" s="7"/>
+      <c r="G4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="2"/>
-      <c r="L4" s="1" t="s">
+      <c r="H4" s="7"/>
+      <c r="L4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="M4" s="2"/>
-      <c r="O4" s="9" t="s">
+      <c r="M4" s="7"/>
+      <c r="O4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="G5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="2"/>
-      <c r="L5" s="1" t="s">
+      <c r="B5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="M5" s="2"/>
-      <c r="O5" s="10"/>
+      <c r="C5" s="7"/>
+      <c r="D5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="L5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="M5" s="7"/>
+      <c r="O5" s="4"/>
       <c r="P5">
         <v>1</v>
       </c>
       <c r="Q5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B6" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="G6" s="6" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" t="s">
-        <v>41</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="2"/>
+      <c r="H6" s="7"/>
       <c r="I6" t="s">
-        <v>23</v>
-      </c>
-      <c r="L6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="M6" s="2"/>
-      <c r="O6" s="11"/>
+      <c r="M6" s="7"/>
+      <c r="O6" s="5"/>
       <c r="P6">
         <v>2</v>
       </c>
       <c r="Q6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B7" s="6"/>
+      <c r="C7" s="7"/>
+      <c r="G7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="7"/>
+      <c r="I7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="M7" s="7"/>
+      <c r="P7">
+        <v>3</v>
+      </c>
+      <c r="Q7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B7" s="1"/>
-      <c r="C7" s="2"/>
-      <c r="G7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H7" s="2"/>
-      <c r="I7" t="s">
-        <v>36</v>
-      </c>
-      <c r="L7" s="1" t="s">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="G8" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="7"/>
+      <c r="L8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="M8" s="7"/>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="G9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="7"/>
+      <c r="I9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="M9" s="7"/>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="G10" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" t="s">
+        <v>25</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="M10" s="7"/>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="G11" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" s="11"/>
+      <c r="I11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="M11" s="7"/>
+      <c r="N11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="L12" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="M12" s="7"/>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B13" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="H13" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I13" s="9"/>
+      <c r="L13" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M13" s="7"/>
+      <c r="P13" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q13" s="15"/>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B14" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="H14" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I14" s="7"/>
+      <c r="P14" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="13"/>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B15" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" t="s">
+        <v>29</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15" s="7"/>
+      <c r="P15" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q15" s="13"/>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" s="7"/>
+      <c r="J16" t="s">
+        <v>27</v>
+      </c>
+      <c r="P16" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q16" s="13"/>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B17" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="7"/>
+      <c r="P17" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="G8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" s="2"/>
-      <c r="L8" s="1" t="s">
+      <c r="Q17" s="13"/>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B18" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="D18" t="s">
+        <v>28</v>
+      </c>
+      <c r="P18" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="M8" s="2"/>
-    </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="G9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9" s="2"/>
-      <c r="I9" t="s">
-        <v>25</v>
-      </c>
-      <c r="L9" s="1" t="s">
+      <c r="Q18" s="13"/>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B19" s="6"/>
+      <c r="C19" s="7"/>
+      <c r="P19" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="M9" s="2"/>
-    </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="G10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H10" s="2"/>
-      <c r="I10" t="s">
-        <v>28</v>
-      </c>
-      <c r="L10" s="1" t="s">
+      <c r="Q19" s="13"/>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="P20" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="M10" s="2"/>
-    </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="G11" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H11" s="6"/>
-      <c r="I11" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="M11" s="2"/>
-      <c r="N11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="L12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M12" s="2"/>
-    </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="4"/>
-      <c r="H13" s="3" t="s">
+      <c r="Q20" s="13"/>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="J21" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K21" s="9"/>
+      <c r="P21" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q21" s="13"/>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="J22" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="K22" s="7"/>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="J23" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="K23" s="7"/>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="J24" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="4"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="2"/>
-      <c r="P13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q13" s="4"/>
-    </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
+      <c r="K24" s="7"/>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D25" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" s="15"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="7"/>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D26" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="H14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I14" s="2"/>
-      <c r="P14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="2"/>
-    </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C15" s="2"/>
-      <c r="D15" t="s">
-        <v>32</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I15" s="2"/>
-      <c r="P15" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q15" s="2"/>
-    </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="2"/>
-      <c r="D16" t="s">
-        <v>29</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I16" s="2"/>
-      <c r="J16" t="s">
-        <v>30</v>
-      </c>
-      <c r="P16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q16" s="2"/>
-    </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="2"/>
-      <c r="P17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q17" s="2"/>
-    </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B18" s="1" t="s">
+      <c r="E26" s="13"/>
+    </row>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D27" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="2"/>
-      <c r="D18" t="s">
-        <v>31</v>
-      </c>
-      <c r="P18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q18" s="2"/>
-    </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B19" s="1"/>
-      <c r="C19" s="2"/>
-      <c r="P19" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q19" s="2"/>
-    </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="P20" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q20" s="2"/>
-    </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="P21" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q21" s="2"/>
-    </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D25" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E25" s="13"/>
-    </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D26" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="E26" s="15"/>
-    </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D27" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E27" s="15"/>
+      <c r="E27" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="50">
+  <mergeCells count="55">
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
     <mergeCell ref="O4:O6"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B3:C3"/>
@@ -951,40 +1031,6 @@
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H14:I14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
